--- a/samples/xlsx/TestStrictOpenXml.xlsx
+++ b/samples/xlsx/TestStrictOpenXml.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E4686FAA-29D2-4579-A406-BD4EEB90EFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC8BDDAF-6948-4E68-8480-2D1A8FB94677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="3120" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="6" uniqueCount="6">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="6">
   <si>
     <t>title1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,8 +380,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,4 +413,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBACD9B7-1B8E-485F-AEE1-3025DF010742}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7596A0A-FD47-42D6-95A0-63FF4219309B}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>